--- a/BBDD/ERRORPROG_EJ.xlsx
+++ b/BBDD/ERRORPROG_EJ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Desktop\practica\Bookdown\Bookdown\BBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB140205-12F8-4343-B0FB-8ED47BFAF9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18F075F-5F6B-498C-A5AC-642B2F7A1B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{EDBCBBBD-D8F2-448B-9F77-D7BECCCAA404}"/>
   </bookViews>
@@ -35,25 +35,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>salto</t>
-  </si>
-  <si>
-    <t>llegada</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>f11_1_1</t>
   </si>
   <si>
     <t>f12_1_1</t>
+  </si>
+  <si>
+    <t>f13_1_2</t>
+  </si>
+  <si>
+    <t>Llegada</t>
+  </si>
+  <si>
+    <t>Criterio</t>
+  </si>
+  <si>
+    <t>Salida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +73,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -76,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,13 +96,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,35 +435,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B532EA9-A866-41EB-B8AF-D2766F13102D}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
